--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_No_Estacionario_ARIMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.2027907573111107</v>
+        <v>0.2479090405365451</v>
       </c>
       <c r="D2">
-        <v>0.8393231530936536</v>
+        <v>0.8065040260802943</v>
       </c>
       <c r="E2">
         <v>14.0496082876303</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.2286145863867043</v>
+        <v>0.2233914028418744</v>
       </c>
       <c r="D3">
-        <v>0.8191963268949047</v>
+        <v>0.8252921731356559</v>
       </c>
       <c r="E3">
         <v>14.0496082876303</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.7995193874319931</v>
+        <v>-1.10784154189995</v>
       </c>
       <c r="D4">
-        <v>0.4241024028003475</v>
+        <v>0.2798957992306943</v>
       </c>
       <c r="E4">
         <v>14.0496082876303</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-2.913384133465812</v>
+        <v>-2.135513497381739</v>
       </c>
       <c r="D5">
-        <v>0.003622632298212913</v>
+        <v>0.04409993457764472</v>
       </c>
       <c r="E5">
         <v>14.0496082876303</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.01669211746021319</v>
+        <v>-0.02403972993395784</v>
       </c>
       <c r="D6">
-        <v>0.9866842188529303</v>
+        <v>0.9810376374017804</v>
       </c>
       <c r="E6">
         <v>13.71590294708654</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.262754523004934</v>
+        <v>-1.561905577968721</v>
       </c>
       <c r="D7">
-        <v>0.2068527561733255</v>
+        <v>0.1325813883696225</v>
       </c>
       <c r="E7">
         <v>13.71590294708654</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-3.09227886173733</v>
+        <v>-2.590204447755234</v>
       </c>
       <c r="D8">
-        <v>0.002018952476298796</v>
+        <v>0.01670384195503472</v>
       </c>
       <c r="E8">
         <v>13.71590294708654</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.218789999672369</v>
+        <v>-1.626746364084547</v>
       </c>
       <c r="D9">
-        <v>0.2230951193674198</v>
+        <v>0.1180304866324751</v>
       </c>
       <c r="E9">
         <v>13.74152738413495</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-3.049619553135275</v>
+        <v>-2.323330950694551</v>
       </c>
       <c r="D10">
-        <v>0.002327144203949638</v>
+        <v>0.02979875938686805</v>
       </c>
       <c r="E10">
         <v>13.74152738413495</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-2.289208522502621</v>
+        <v>-1.688005315932277</v>
       </c>
       <c r="D11">
-        <v>0.02219087428041866</v>
+        <v>0.1055376571075366</v>
       </c>
       <c r="E11">
         <v>15.48765299701036</v>
@@ -687,7 +687,7 @@
         <v>20.095308122649</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>100</v>
